--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -44,13 +44,13 @@
     <t>安徽</t>
   </si>
   <si>
-    <t>四川</t>
-  </si>
-  <si>
     <t>山东</t>
   </si>
   <si>
     <t>北京</t>
+  </si>
+  <si>
+    <t>四川</t>
   </si>
   <si>
     <t>福建</t>
@@ -68,10 +68,13 @@
     <t>广西</t>
   </si>
   <si>
-    <t>海南</t>
+    <t>陕西</t>
   </si>
   <si>
-    <t>陕西</t>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>海南</t>
   </si>
   <si>
     <t>河北</t>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>辽宁</t>
-  </si>
-  <si>
-    <t>云南</t>
   </si>
   <si>
     <t>天津</t>
@@ -113,13 +113,13 @@
     <t>香港</t>
   </si>
   <si>
+    <t>台湾</t>
+  </si>
+  <si>
     <t>澳门</t>
   </si>
   <si>
     <t>青海</t>
-  </si>
-  <si>
-    <t>台湾</t>
   </si>
   <si>
     <t>死亡</t>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>1</v>
@@ -5995,19 +5995,19 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW15" t="n">
         <v>1</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
@@ -6076,20 +6076,20 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
         <v>1</v>
       </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
       <c r="BY15" t="n">
         <v>0</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED15" t="n">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="EK15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:141">
@@ -6405,34 +6405,34 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>2</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW16" t="n">
         <v>5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>14</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
@@ -6504,67 +6504,67 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
         <v>4</v>
       </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC16" t="n">
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
         <v>1</v>
       </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>1</v>
       </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>0</v>
-      </c>
       <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
         <v>2</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>1</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="EK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:141">
@@ -6830,34 +6830,34 @@
         <v>0</v>
       </c>
       <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
         <v>2</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW17" t="n">
         <v>5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -6929,31 +6929,31 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
         <v>4</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>1</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
@@ -6974,22 +6974,22 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
         <v>1</v>
       </c>
-      <c r="CK17" t="n">
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO17" t="n">
         <v>2</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>1</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -7118,11 +7118,11 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG17" t="n">
         <v>1</v>
       </c>
-      <c r="EG17" t="n">
-        <v>0</v>
-      </c>
       <c r="EH17" t="n">
         <v>0</v>
       </c>
@@ -7130,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:141">
@@ -7252,37 +7252,37 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
         <v>28</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>36</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -7354,31 +7354,31 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
         <v>17</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>15</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>8</v>
       </c>
       <c r="CD18" t="n">
         <v>1</v>
@@ -7390,31 +7390,31 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>9</v>
       </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
         <v>12</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>5</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -7534,31 +7534,31 @@
         <v>0</v>
       </c>
       <c r="EC18" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG18" t="n">
         <v>2</v>
       </c>
-      <c r="ED18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK18" t="n">
         <v>1</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:141">
@@ -7677,37 +7677,37 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="BB19" t="n">
         <v>0</v>
@@ -7791,19 +7791,19 @@
         <v>0</v>
       </c>
       <c r="BY19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>22</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>13</v>
       </c>
       <c r="CD19" t="n">
         <v>1</v>
@@ -7815,31 +7815,31 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>15</v>
       </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>17</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>16</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -7959,31 +7959,31 @@
         <v>0</v>
       </c>
       <c r="EC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG19" t="n">
         <v>5</v>
       </c>
-      <c r="ED19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK19" t="n">
         <v>1</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:141">
@@ -8108,31 +8108,31 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
+        <v>63</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>68</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
         <v>69</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>63</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>68</v>
       </c>
       <c r="AX20" t="n">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>46</v>
       </c>
       <c r="BR20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="BV20" t="n">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="BY20" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="BZ20" t="n">
         <v>1</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="CD20" t="n">
         <v>1</v>
@@ -8240,31 +8240,31 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
+        <v>18</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>16</v>
       </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>22</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>19</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -8384,31 +8384,31 @@
         <v>0</v>
       </c>
       <c r="EC20" t="n">
+        <v>5</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG20" t="n">
         <v>6</v>
       </c>
-      <c r="ED20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK20" t="n">
         <v>4</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:141">
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>106</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -8533,31 +8533,31 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AP21" t="n">
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
         <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AX21" t="n">
         <v>0</v>
@@ -8629,31 +8629,31 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
+        <v>46</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>44</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>40</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>35</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>33</v>
       </c>
       <c r="CD21" t="n">
         <v>1</v>
@@ -8665,10 +8665,10 @@
         <v>0</v>
       </c>
       <c r="CG21" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="CO21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -8821,19 +8821,19 @@
         <v>0</v>
       </c>
       <c r="EG21" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK21" t="n">
         <v>6</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>全国</t>
   </si>
@@ -26,43 +26,43 @@
     <t>湖北</t>
   </si>
   <si>
+    <t>浙江</t>
+  </si>
+  <si>
     <t>广东</t>
   </si>
   <si>
-    <t>浙江</t>
+    <t>湖南</t>
   </si>
   <si>
     <t>河南</t>
   </si>
   <si>
-    <t>湖南</t>
+    <t>安徽</t>
   </si>
   <si>
     <t>重庆</t>
   </si>
   <si>
-    <t>安徽</t>
-  </si>
-  <si>
     <t>山东</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>江西</t>
   </si>
   <si>
     <t>四川</t>
   </si>
   <si>
-    <t>福建</t>
-  </si>
-  <si>
-    <t>江西</t>
+    <t>北京</t>
   </si>
   <si>
     <t>江苏</t>
   </si>
   <si>
     <t>上海</t>
+  </si>
+  <si>
+    <t>福建</t>
   </si>
   <si>
     <t>广西</t>
@@ -74,16 +74,16 @@
     <t>云南</t>
   </si>
   <si>
+    <t>河北</t>
+  </si>
+  <si>
     <t>海南</t>
   </si>
   <si>
-    <t>河北</t>
+    <t>辽宁</t>
   </si>
   <si>
     <t>黑龙江</t>
-  </si>
-  <si>
-    <t>辽宁</t>
   </si>
   <si>
     <t>天津</t>
@@ -98,19 +98,19 @@
     <t>内蒙古</t>
   </si>
   <si>
+    <t>新疆</t>
+  </si>
+  <si>
     <t>宁夏</t>
   </si>
   <si>
-    <t>新疆</t>
+    <t>香港</t>
   </si>
   <si>
     <t>贵州</t>
   </si>
   <si>
     <t>吉林</t>
-  </si>
-  <si>
-    <t>香港</t>
   </si>
   <si>
     <t>台湾</t>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>青海</t>
+  </si>
+  <si>
+    <t>西藏</t>
   </si>
   <si>
     <t>死亡</t>
@@ -189,6 +192,9 @@
   </si>
   <si>
     <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK21"/>
+  <dimension ref="A1:EO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +551,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:141">
+    <row r="1" spans="1:145">
       <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -757,438 +763,456 @@
       <c r="EI1" s="1" t="n"/>
       <c r="EJ1" s="1" t="n"/>
       <c r="EK1" s="1" t="n"/>
+      <c r="EL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="EM1" s="1" t="n"/>
+      <c r="EN1" s="1" t="n"/>
+      <c r="EO1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:141">
+    <row r="2" spans="1:145">
       <c r="A2" s="1" t="s"/>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BR2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BV2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CD2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CH2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CL2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CP2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CP2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CT2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CX2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CY2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DB2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DJ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DN2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DR2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DR2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DV2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DV2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DZ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="ED2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="ED2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="EH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="EH2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="EL2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="EO2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:141">
+    <row r="3" spans="1:145">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:141">
+    <row r="4" spans="1:145">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1610,10 +1634,22 @@
       <c r="EK4" t="n">
         <v>0</v>
       </c>
+      <c r="EL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:141">
+    <row r="5" spans="1:145">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -2035,10 +2071,22 @@
       <c r="EK5" t="n">
         <v>0</v>
       </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:141">
+    <row r="6" spans="1:145">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2460,10 +2508,22 @@
       <c r="EK6" t="n">
         <v>0</v>
       </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:141">
+    <row r="7" spans="1:145">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2885,10 +2945,22 @@
       <c r="EK7" t="n">
         <v>0</v>
       </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:141">
+    <row r="8" spans="1:145">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -3310,10 +3382,22 @@
       <c r="EK8" t="n">
         <v>0</v>
       </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:141">
+    <row r="9" spans="1:145">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -3735,10 +3819,22 @@
       <c r="EK9" t="n">
         <v>0</v>
       </c>
+      <c r="EL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:141">
+    <row r="10" spans="1:145">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -4160,10 +4256,22 @@
       <c r="EK10" t="n">
         <v>0</v>
       </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:141">
+    <row r="11" spans="1:145">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -4585,10 +4693,22 @@
       <c r="EK11" t="n">
         <v>0</v>
       </c>
+      <c r="EL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:141">
+    <row r="12" spans="1:145">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -5010,10 +5130,22 @@
       <c r="EK12" t="n">
         <v>0</v>
       </c>
+      <c r="EL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:141">
+    <row r="13" spans="1:145">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -5435,10 +5567,22 @@
       <c r="EK13" t="n">
         <v>0</v>
       </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:141">
+    <row r="14" spans="1:145">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="n">
         <v>6</v>
@@ -5860,10 +6004,22 @@
       <c r="EK14" t="n">
         <v>0</v>
       </c>
+      <c r="EL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:141">
+    <row r="15" spans="1:145">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="n">
         <v>9</v>
@@ -5872,7 +6028,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>424</v>
@@ -5908,71 +6064,71 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>4</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="U15" t="n">
         <v>17</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
         <v>5</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
       <c r="AL15" t="n">
         <v>0</v>
       </c>
@@ -5992,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -6019,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
         <v>0</v>
@@ -6028,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -6040,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -6052,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -6100,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -6112,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -6124,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -6136,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -6196,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
         <v>0</v>
@@ -6208,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM15" t="n">
         <v>0</v>
@@ -6220,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
@@ -6244,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -6285,10 +6441,22 @@
       <c r="EK15" t="n">
         <v>0</v>
       </c>
+      <c r="EL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:141">
+    <row r="16" spans="1:145">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
         <v>17</v>
@@ -6297,7 +6465,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>550</v>
@@ -6333,23 +6501,23 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
         <v>26</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>10</v>
-      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
@@ -6360,43 +6528,43 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
         <v>4</v>
       </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
       <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>6</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -6420,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -6444,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
@@ -6456,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
@@ -6465,10 +6633,10 @@
         <v>0</v>
       </c>
       <c r="BH16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -6477,10 +6645,10 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
@@ -6528,20 +6696,20 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
         <v>4</v>
       </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>1</v>
-      </c>
       <c r="CH16" t="n">
         <v>0</v>
       </c>
@@ -6549,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6561,10 +6729,10 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
@@ -6624,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
@@ -6636,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="DM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN16" t="n">
         <v>0</v>
@@ -6657,10 +6825,10 @@
         <v>0</v>
       </c>
       <c r="DT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
@@ -6669,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>0</v>
@@ -6710,10 +6878,22 @@
       <c r="EK16" t="n">
         <v>0</v>
       </c>
+      <c r="EL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:141">
+    <row r="17" spans="1:145">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="n">
         <v>24</v>
@@ -6722,7 +6902,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>659</v>
@@ -6758,23 +6938,23 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
         <v>26</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>10</v>
-      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -6785,43 +6965,43 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
         <v>4</v>
       </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AK17" t="n">
         <v>6</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -6845,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -6869,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>0</v>
@@ -6881,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -6890,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -6902,10 +7082,10 @@
         <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
@@ -6953,20 +7133,20 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
         <v>4</v>
       </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>1</v>
-      </c>
       <c r="CH17" t="n">
         <v>0</v>
       </c>
@@ -6974,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -6986,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -7049,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -7061,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="DM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -7082,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="DT17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
@@ -7094,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="DX17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ17" t="n">
         <v>0</v>
@@ -7135,10 +7315,22 @@
       <c r="EK17" t="n">
         <v>0</v>
       </c>
+      <c r="EL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:141">
+    <row r="18" spans="1:145">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="n">
         <v>26</v>
@@ -7147,7 +7339,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>900</v>
@@ -7180,26 +7372,26 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>62</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>78</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>62</v>
-      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -7210,20 +7402,20 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>32</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>43</v>
-      </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
@@ -7234,19 +7426,19 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>57</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>39</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -7264,13 +7456,13 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -7288,19 +7480,19 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" t="n">
         <v>0</v>
@@ -7318,19 +7510,19 @@
         <v>0</v>
       </c>
       <c r="BI18" t="n">
+        <v>33</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BM18" t="n">
         <v>18</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>33</v>
       </c>
       <c r="BN18" t="n">
         <v>0</v>
@@ -7369,7 +7561,7 @@
         <v>5</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA18" t="n">
         <v>0</v>
@@ -7378,22 +7570,22 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
         <v>17</v>
       </c>
-      <c r="CD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>8</v>
-      </c>
       <c r="CH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -7402,19 +7594,19 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
+        <v>12</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
         <v>9</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>12</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -7498,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DR18" t="n">
         <v>0</v>
@@ -7522,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="DY18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DZ18" t="n">
         <v>0</v>
@@ -7560,10 +7752,22 @@
       <c r="EK18" t="n">
         <v>1</v>
       </c>
+      <c r="EL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:141">
+    <row r="19" spans="1:145">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="n">
         <v>42</v>
@@ -7572,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>1408</v>
@@ -7605,28 +7809,28 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>104</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>98</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>104</v>
-      </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -7635,20 +7839,20 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
+        <v>69</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>83</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>69</v>
-      </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
@@ -7659,19 +7863,19 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>75</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>60</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -7689,13 +7893,13 @@
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -7713,49 +7917,49 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ19" t="n">
         <v>0</v>
       </c>
       <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>31</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
         <v>29</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>36</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>31</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>40</v>
       </c>
       <c r="BN19" t="n">
         <v>0</v>
@@ -7794,7 +7998,7 @@
         <v>16</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA19" t="n">
         <v>0</v>
@@ -7803,22 +8007,22 @@
         <v>0</v>
       </c>
       <c r="CC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
         <v>22</v>
       </c>
-      <c r="CD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>13</v>
-      </c>
       <c r="CH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -7827,19 +8031,19 @@
         <v>0</v>
       </c>
       <c r="CK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>15</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>17</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -7935,19 +8139,19 @@
         <v>0</v>
       </c>
       <c r="DU19" t="n">
+        <v>5</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY19" t="n">
         <v>4</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>5</v>
       </c>
       <c r="DZ19" t="n">
         <v>0</v>
@@ -7985,10 +8189,22 @@
       <c r="EK19" t="n">
         <v>1</v>
       </c>
+      <c r="EL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:141">
+    <row r="20" spans="1:145">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="n">
         <v>56</v>
@@ -8030,50 +8246,50 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>128</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>146</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>128</v>
       </c>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>100</v>
-      </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
@@ -8084,19 +8300,19 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>110</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>70</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -8114,13 +8330,13 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -8138,49 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ20" t="n">
         <v>0</v>
       </c>
       <c r="BA20" t="n">
+        <v>68</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>47</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>53</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
         <v>56</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>48</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>47</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>53</v>
       </c>
       <c r="BN20" t="n">
         <v>0</v>
@@ -8228,22 +8444,22 @@
         <v>0</v>
       </c>
       <c r="CC20" t="n">
+        <v>18</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
         <v>31</v>
       </c>
-      <c r="CD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>18</v>
-      </c>
       <c r="CH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI20" t="n">
         <v>0</v>
@@ -8252,19 +8468,19 @@
         <v>0</v>
       </c>
       <c r="CK20" t="n">
+        <v>22</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>16</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>22</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -8324,20 +8540,20 @@
         <v>0</v>
       </c>
       <c r="DI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
         <v>7</v>
       </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>5</v>
-      </c>
       <c r="DN20" t="n">
         <v>0</v>
       </c>
@@ -8348,31 +8564,31 @@
         <v>0</v>
       </c>
       <c r="DQ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
         <v>7</v>
       </c>
-      <c r="DR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY20" t="n">
         <v>6</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>8</v>
       </c>
       <c r="DZ20" t="n">
         <v>0</v>
@@ -8410,10 +8626,22 @@
       <c r="EK20" t="n">
         <v>4</v>
       </c>
+      <c r="EL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:141">
+    <row r="21" spans="1:145">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="n">
         <v>82</v>
@@ -8422,7 +8650,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>5794</v>
       </c>
       <c r="E21" t="n">
         <v>2882</v>
@@ -8455,28 +8683,28 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>173</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>188</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>173</v>
-      </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -8485,20 +8713,20 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
+        <v>143</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>168</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>143</v>
-      </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
@@ -8509,19 +8737,19 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
+        <v>106</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>132</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>106</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -8536,16 +8764,16 @@
         <v>87</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -8560,52 +8788,52 @@
         <v>90</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
         <v>0</v>
       </c>
       <c r="BA21" t="n">
+        <v>91</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>66</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
         <v>73</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>72</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>70</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>66</v>
       </c>
       <c r="BN21" t="n">
         <v>0</v>
@@ -8644,7 +8872,7 @@
         <v>44</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA21" t="n">
         <v>0</v>
@@ -8653,22 +8881,22 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
+        <v>33</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
         <v>40</v>
       </c>
-      <c r="CD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>33</v>
-      </c>
       <c r="CH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -8680,7 +8908,7 @@
         <v>30</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM21" t="n">
         <v>0</v>
@@ -8749,20 +8977,20 @@
         <v>0</v>
       </c>
       <c r="DI21" t="n">
+        <v>10</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM21" t="n">
         <v>11</v>
       </c>
-      <c r="DJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>10</v>
-      </c>
       <c r="DN21" t="n">
         <v>0</v>
       </c>
@@ -8773,19 +9001,19 @@
         <v>0</v>
       </c>
       <c r="DQ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
         <v>9</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>8</v>
       </c>
       <c r="DV21" t="n">
         <v>0</v>
@@ -8835,9 +9063,458 @@
       <c r="EK21" t="n">
         <v>6</v>
       </c>
+      <c r="EL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:145">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="n">
+        <v>106</v>
+      </c>
+      <c r="C22" t="n">
+        <v>73</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6972</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4633</v>
+      </c>
+      <c r="F22" t="n">
+        <v>104</v>
+      </c>
+      <c r="G22" t="n">
+        <v>47</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1905</v>
+      </c>
+      <c r="J22" t="n">
+        <v>125</v>
+      </c>
+      <c r="K22" t="n">
+        <v>80</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3554</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>296</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>241</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>221</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>206</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>152</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>121</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>109</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>108</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>102</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>99</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>80</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>82</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>58</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>56</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>48</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>43</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>36</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>33</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>25</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>27</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>24</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>16</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>12</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>6</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="BN1:BQ1"/>
     <mergeCell ref="ED1:EG1"/>
@@ -8866,6 +9543,7 @@
     <mergeCell ref="CT1:CW1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="BV1:BY1"/>
+    <mergeCell ref="EL1:EO1"/>
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="DF1:DI1"/>
     <mergeCell ref="BF1:BI1"/>

--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -32,10 +32,10 @@
     <t>广东</t>
   </si>
   <si>
-    <t>湖南</t>
+    <t>河南</t>
   </si>
   <si>
-    <t>河南</t>
+    <t>湖南</t>
   </si>
   <si>
     <t>安徽</t>
@@ -44,19 +44,19 @@
     <t>重庆</t>
   </si>
   <si>
-    <t>山东</t>
+    <t>江西</t>
   </si>
   <si>
-    <t>江西</t>
+    <t>山东</t>
   </si>
   <si>
     <t>四川</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>江苏</t>
   </si>
   <si>
-    <t>江苏</t>
+    <t>北京</t>
   </si>
   <si>
     <t>上海</t>
@@ -68,28 +68,28 @@
     <t>广西</t>
   </si>
   <si>
-    <t>陕西</t>
-  </si>
-  <si>
     <t>云南</t>
   </si>
   <si>
     <t>河北</t>
   </si>
   <si>
+    <t>陕西</t>
+  </si>
+  <si>
     <t>海南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
   </si>
   <si>
-    <t>黑龙江</t>
+    <t>山西</t>
   </si>
   <si>
     <t>天津</t>
-  </si>
-  <si>
-    <t>山西</t>
   </si>
   <si>
     <t>甘肃</t>
@@ -98,28 +98,28 @@
     <t>内蒙古</t>
   </si>
   <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
     <t>新疆</t>
   </si>
   <si>
-    <t>宁夏</t>
+    <t>贵州</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>贵州</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
     <t>台湾</t>
   </si>
   <si>
-    <t>澳门</t>
+    <t>青海</t>
   </si>
   <si>
-    <t>青海</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>西藏</t>
@@ -137,7 +137,7 @@
     <t>确诊</t>
   </si>
   <si>
-    <t>日期</t>
+    <t>2020-01-10</t>
   </si>
   <si>
     <t>2020-01-11</t>
@@ -543,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO22"/>
+  <dimension ref="A1:EO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,14 +1205,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:145">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="4" spans="1:145">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1649,7 +1644,7 @@
     </row>
     <row r="5" spans="1:145">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -2086,7 +2081,7 @@
     </row>
     <row r="6" spans="1:145">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2523,7 +2518,7 @@
     </row>
     <row r="7" spans="1:145">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2960,7 +2955,7 @@
     </row>
     <row r="8" spans="1:145">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -3397,7 +3392,7 @@
     </row>
     <row r="9" spans="1:145">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -3834,7 +3829,7 @@
     </row>
     <row r="10" spans="1:145">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -4271,7 +4266,7 @@
     </row>
     <row r="11" spans="1:145">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -4708,7 +4703,7 @@
     </row>
     <row r="12" spans="1:145">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -5145,7 +5140,7 @@
     </row>
     <row r="13" spans="1:145">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -5582,7 +5577,7 @@
     </row>
     <row r="14" spans="1:145">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="n">
         <v>6</v>
@@ -5594,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -6019,19 +6014,19 @@
     </row>
     <row r="15" spans="1:145">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>424</v>
+        <v>542</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
@@ -6091,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -6103,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6136,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -6148,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -6175,19 +6170,19 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
         <v>10</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
@@ -6232,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -6244,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
         <v>0</v>
@@ -6280,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -6292,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -6307,20 +6302,20 @@
         <v>0</v>
       </c>
       <c r="CS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
         <v>2</v>
       </c>
-      <c r="CT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
       <c r="CX15" t="n">
         <v>0</v>
       </c>
@@ -6352,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI15" t="n">
         <v>0</v>
@@ -6376,31 +6371,31 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX15" t="n">
         <v>117</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>1</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -6456,7 +6451,7 @@
     </row>
     <row r="16" spans="1:145">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="n">
         <v>17</v>
@@ -6468,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
@@ -6528,19 +6523,19 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>4</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6612,19 +6607,19 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
         <v>14</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>1</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
@@ -6672,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
@@ -6696,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -6717,23 +6712,23 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
         <v>2</v>
       </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
-      </c>
       <c r="CP16" t="n">
         <v>0</v>
       </c>
@@ -6744,20 +6739,20 @@
         <v>0</v>
       </c>
       <c r="CS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="n">
         <v>4</v>
       </c>
-      <c r="CT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>1</v>
-      </c>
       <c r="CX16" t="n">
         <v>0</v>
       </c>
@@ -6792,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
@@ -6801,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN16" t="n">
         <v>0</v>
@@ -6816,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR16" t="n">
         <v>0</v>
@@ -6837,10 +6832,10 @@
         <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ16" t="n">
         <v>0</v>
@@ -6864,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -6876,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL16" t="n">
         <v>0</v>
@@ -6893,19 +6888,19 @@
     </row>
     <row r="17" spans="1:145">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>659</v>
+        <v>897</v>
       </c>
       <c r="F17" t="n">
         <v>23</v>
@@ -6965,19 +6960,19 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>4</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>5</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -7049,19 +7044,19 @@
         <v>0</v>
       </c>
       <c r="BA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
         <v>14</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>1</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -7109,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV17" t="n">
         <v>0</v>
@@ -7133,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
@@ -7154,23 +7149,23 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO17" t="n">
         <v>2</v>
       </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>1</v>
-      </c>
       <c r="CP17" t="n">
         <v>0</v>
       </c>
@@ -7181,20 +7176,20 @@
         <v>0</v>
       </c>
       <c r="CS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="n">
         <v>4</v>
       </c>
-      <c r="CT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>1</v>
-      </c>
       <c r="CX17" t="n">
         <v>0</v>
       </c>
@@ -7229,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -7238,10 +7233,10 @@
         <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -7253,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR17" t="n">
         <v>0</v>
@@ -7274,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="DX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ17" t="n">
         <v>0</v>
@@ -7298,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH17" t="n">
         <v>0</v>
@@ -7310,10 +7305,10 @@
         <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL17" t="n">
         <v>0</v>
@@ -7330,19 +7325,19 @@
     </row>
     <row r="18" spans="1:145">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>900</v>
+        <v>1377</v>
       </c>
       <c r="F18" t="n">
         <v>38</v>
@@ -7402,19 +7397,19 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>43</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>32</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -7444,25 +7439,25 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
         <v>21</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -7480,25 +7475,25 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
         <v>3</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
         <v>41</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>18</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
@@ -7546,31 +7541,31 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
         <v>15</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>8</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
@@ -7585,7 +7580,7 @@
         <v>17</v>
       </c>
       <c r="CH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -7594,43 +7589,43 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
+        <v>9</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
         <v>12</v>
       </c>
-      <c r="CL18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW18" t="n">
         <v>9</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>9</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>6</v>
       </c>
       <c r="CX18" t="n">
         <v>0</v>
@@ -7678,19 +7673,19 @@
         <v>0</v>
       </c>
       <c r="DM18" t="n">
+        <v>4</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ18" t="n">
         <v>3</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>5</v>
       </c>
       <c r="DR18" t="n">
         <v>0</v>
@@ -7714,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="DY18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DZ18" t="n">
         <v>0</v>
@@ -7738,19 +7733,19 @@
         <v>0</v>
       </c>
       <c r="EG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK18" t="n">
         <v>2</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>1</v>
       </c>
       <c r="EL18" t="n">
         <v>0</v>
@@ -7767,19 +7762,19 @@
     </row>
     <row r="19" spans="1:145">
       <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="n">
         <v>56</v>
       </c>
-      <c r="B19" t="n">
-        <v>42</v>
-      </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1408</v>
+        <v>2071</v>
       </c>
       <c r="F19" t="n">
         <v>45</v>
@@ -7830,7 +7825,7 @@
         <v>98</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -7839,19 +7834,19 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>69</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>83</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7887,19 +7882,19 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
         <v>39</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>36</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -7917,25 +7912,25 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
         <v>2</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
         <v>51</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>31</v>
       </c>
       <c r="BF19" t="n">
         <v>0</v>
@@ -7983,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>22</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>16</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>13</v>
       </c>
       <c r="CD19" t="n">
         <v>0</v>
@@ -8022,7 +8017,7 @@
         <v>22</v>
       </c>
       <c r="CH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -8031,20 +8026,20 @@
         <v>0</v>
       </c>
       <c r="CK19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>17</v>
       </c>
-      <c r="CL19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>15</v>
-      </c>
       <c r="CP19" t="n">
         <v>0</v>
       </c>
@@ -8055,19 +8050,19 @@
         <v>0</v>
       </c>
       <c r="CS19" t="n">
+        <v>9</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW19" t="n">
         <v>13</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>9</v>
       </c>
       <c r="CX19" t="n">
         <v>0</v>
@@ -8127,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -8151,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="DY19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DZ19" t="n">
         <v>0</v>
@@ -8175,19 +8170,19 @@
         <v>0</v>
       </c>
       <c r="EG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK19" t="n">
         <v>5</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>1</v>
       </c>
       <c r="EL19" t="n">
         <v>0</v>
@@ -8204,19 +8199,19 @@
     </row>
     <row r="20" spans="1:145">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="n">
+        <v>82</v>
+      </c>
+      <c r="C20" t="n">
         <v>56</v>
       </c>
-      <c r="C20" t="n">
-        <v>49</v>
-      </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5794</v>
       </c>
       <c r="E20" t="n">
-        <v>2079</v>
+        <v>2857</v>
       </c>
       <c r="F20" t="n">
         <v>63</v>
@@ -8267,7 +8262,7 @@
         <v>146</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -8276,19 +8271,19 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>100</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>128</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -8324,19 +8319,19 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
         <v>63</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>48</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -8354,25 +8349,25 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>47</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
         <v>2</v>
       </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
         <v>68</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>47</v>
       </c>
       <c r="BF20" t="n">
         <v>1</v>
@@ -8420,31 +8415,31 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>35</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>19</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>18</v>
       </c>
       <c r="CD20" t="n">
         <v>1</v>
@@ -8459,7 +8454,7 @@
         <v>31</v>
       </c>
       <c r="CH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI20" t="n">
         <v>0</v>
@@ -8468,20 +8463,20 @@
         <v>0</v>
       </c>
       <c r="CK20" t="n">
+        <v>16</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>22</v>
       </c>
-      <c r="CL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>16</v>
-      </c>
       <c r="CP20" t="n">
         <v>0</v>
       </c>
@@ -8492,19 +8487,19 @@
         <v>0</v>
       </c>
       <c r="CS20" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW20" t="n">
         <v>17</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>13</v>
       </c>
       <c r="CX20" t="n">
         <v>0</v>
@@ -8540,31 +8535,31 @@
         <v>0</v>
       </c>
       <c r="DI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ20" t="n">
         <v>5</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>7</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>8</v>
       </c>
       <c r="DR20" t="n">
         <v>0</v>
@@ -8588,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="DY20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DZ20" t="n">
         <v>0</v>
@@ -8612,19 +8607,19 @@
         <v>0</v>
       </c>
       <c r="EG20" t="n">
+        <v>4</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK20" t="n">
         <v>6</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>4</v>
       </c>
       <c r="EL20" t="n">
         <v>0</v>
@@ -8641,19 +8636,19 @@
     </row>
     <row r="21" spans="1:145">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="n">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D21" t="n">
-        <v>5794</v>
+        <v>6973</v>
       </c>
       <c r="E21" t="n">
-        <v>2882</v>
+        <v>4630</v>
       </c>
       <c r="F21" t="n">
         <v>85</v>
@@ -8704,7 +8699,7 @@
         <v>188</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -8713,19 +8708,19 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>143</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>168</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8752,7 +8747,7 @@
         <v>132</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -8761,19 +8756,19 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
+        <v>72</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
         <v>87</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>72</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -8788,28 +8783,28 @@
         <v>90</v>
       </c>
       <c r="AX21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="n">
         <v>2</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
         <v>91</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>70</v>
       </c>
       <c r="BF21" t="n">
         <v>1</v>
@@ -8857,31 +8852,31 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>33</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>46</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>44</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>33</v>
       </c>
       <c r="CD21" t="n">
         <v>0</v>
@@ -8896,7 +8891,7 @@
         <v>40</v>
       </c>
       <c r="CH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -8908,7 +8903,7 @@
         <v>30</v>
       </c>
       <c r="CL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM21" t="n">
         <v>0</v>
@@ -8929,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="CS21" t="n">
+        <v>20</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW21" t="n">
         <v>23</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>20</v>
       </c>
       <c r="CX21" t="n">
         <v>0</v>
@@ -8977,31 +8972,31 @@
         <v>0</v>
       </c>
       <c r="DI21" t="n">
+        <v>11</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>8</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ21" t="n">
         <v>10</v>
-      </c>
-      <c r="DJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>11</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>8</v>
       </c>
       <c r="DR21" t="n">
         <v>0</v>
@@ -9049,19 +9044,19 @@
         <v>0</v>
       </c>
       <c r="EG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK21" t="n">
         <v>7</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>6</v>
       </c>
       <c r="EL21" t="n">
         <v>0</v>
@@ -9078,19 +9073,19 @@
     </row>
     <row r="22" spans="1:145">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C22" t="n">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D22" t="n">
-        <v>6972</v>
+        <v>9239</v>
       </c>
       <c r="E22" t="n">
-        <v>4633</v>
+        <v>6095</v>
       </c>
       <c r="F22" t="n">
         <v>104</v>
@@ -9141,28 +9136,28 @@
         <v>241</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
+        <v>206</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
         <v>221</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>206</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -9192,25 +9187,25 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
       </c>
       <c r="AO22" t="n">
+        <v>109</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
         <v>121</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>109</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -9225,28 +9220,28 @@
         <v>108</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>99</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="n">
         <v>4</v>
       </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
         <v>102</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>99</v>
       </c>
       <c r="BF22" t="n">
         <v>1</v>
@@ -9294,31 +9289,31 @@
         <v>0</v>
       </c>
       <c r="BU22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>48</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
         <v>56</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>48</v>
       </c>
       <c r="CD22" t="n">
         <v>1</v>
@@ -9333,7 +9328,7 @@
         <v>43</v>
       </c>
       <c r="CH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI22" t="n">
         <v>0</v>
@@ -9342,20 +9337,20 @@
         <v>0</v>
       </c>
       <c r="CK22" t="n">
+        <v>33</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
         <v>36</v>
       </c>
-      <c r="CL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>33</v>
-      </c>
       <c r="CP22" t="n">
         <v>0</v>
       </c>
@@ -9366,19 +9361,19 @@
         <v>0</v>
       </c>
       <c r="CS22" t="n">
+        <v>27</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
         <v>25</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>27</v>
       </c>
       <c r="CX22" t="n">
         <v>0</v>
@@ -9414,31 +9409,31 @@
         <v>0</v>
       </c>
       <c r="DI22" t="n">
+        <v>12</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ22" t="n">
         <v>13</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>12</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>10</v>
       </c>
       <c r="DR22" t="n">
         <v>0</v>
@@ -9462,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="DY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DZ22" t="n">
         <v>0</v>
@@ -9486,20 +9481,20 @@
         <v>0</v>
       </c>
       <c r="EG22" t="n">
+        <v>6</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK22" t="n">
         <v>7</v>
       </c>
-      <c r="EH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK22" t="n">
-        <v>6</v>
-      </c>
       <c r="EL22" t="n">
         <v>0</v>
       </c>
@@ -9511,6 +9506,443 @@
       </c>
       <c r="EO22" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:145">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="n">
+        <v>171</v>
+      </c>
+      <c r="C23" t="n">
+        <v>135</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12167</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8149</v>
+      </c>
+      <c r="F23" t="n">
+        <v>129</v>
+      </c>
+      <c r="G23" t="n">
+        <v>55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2261</v>
+      </c>
+      <c r="J23" t="n">
+        <v>162</v>
+      </c>
+      <c r="K23" t="n">
+        <v>90</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4586</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>428</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>311</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>278</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>277</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>165</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>162</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>145</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>142</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>129</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>114</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>78</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>70</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>65</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>63</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>46</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>43</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>41</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>35</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>28</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>18</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>14</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>14</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>12</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>10</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>8</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>7</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>全国</t>
   </si>
@@ -38,13 +38,13 @@
     <t>湖南</t>
   </si>
   <si>
+    <t>江西</t>
+  </si>
+  <si>
     <t>安徽</t>
   </si>
   <si>
     <t>重庆</t>
-  </si>
-  <si>
-    <t>江西</t>
   </si>
   <si>
     <t>山东</t>
@@ -56,10 +56,10 @@
     <t>江苏</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>上海</t>
   </si>
   <si>
-    <t>上海</t>
+    <t>北京</t>
   </si>
   <si>
     <t>福建</t>
@@ -68,19 +68,19 @@
     <t>广西</t>
   </si>
   <si>
-    <t>云南</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>河北</t>
   </si>
   <si>
-    <t>陕西</t>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>海南</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
@@ -95,19 +95,19 @@
     <t>甘肃</t>
   </si>
   <si>
-    <t>内蒙古</t>
-  </si>
-  <si>
     <t>宁夏</t>
   </si>
   <si>
-    <t>吉林</t>
+    <t>内蒙古</t>
   </si>
   <si>
     <t>新疆</t>
   </si>
   <si>
     <t>贵州</t>
+  </si>
+  <si>
+    <t>吉林</t>
   </si>
   <si>
     <t>香港</t>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO23"/>
+  <dimension ref="A1:EO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6119,22 +6122,22 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -6179,23 +6182,23 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
         <v>10</v>
       </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ15" t="n">
         <v>0</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -6251,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -6263,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -6275,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -6335,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE15" t="n">
         <v>0</v>
@@ -6347,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
         <v>0</v>
@@ -6359,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
         <v>0</v>
@@ -6371,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
@@ -6544,34 +6547,34 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>4</v>
       </c>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
       <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>6</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>2</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -6616,22 +6619,22 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
         <v>14</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>9</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -6667,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
@@ -6691,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -6700,22 +6703,22 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
         <v>4</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6775,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF16" t="n">
         <v>0</v>
@@ -6787,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
@@ -6796,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
@@ -6811,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR16" t="n">
         <v>0</v>
@@ -6820,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
@@ -6981,34 +6984,34 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>4</v>
       </c>
-      <c r="AG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>13</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AO17" t="n">
         <v>6</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>2</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -7053,22 +7056,22 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
         <v>14</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>9</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -7104,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV17" t="n">
         <v>0</v>
@@ -7128,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
@@ -7140,19 +7143,19 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
         <v>4</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>1</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -7212,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF17" t="n">
         <v>0</v>
@@ -7224,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -7233,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM17" t="n">
         <v>0</v>
@@ -7248,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR17" t="n">
         <v>0</v>
@@ -7257,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
@@ -7421,31 +7424,31 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>39</v>
       </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>57</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -7487,25 +7490,25 @@
         <v>0</v>
       </c>
       <c r="BC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>33</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
         <v>3</v>
       </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
         <v>41</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>33</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -7541,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BV18" t="n">
         <v>1</v>
@@ -7565,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="CD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7577,19 +7580,19 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>17</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>9</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7649,43 +7652,43 @@
         <v>0</v>
       </c>
       <c r="DE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>2</v>
       </c>
-      <c r="DF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="n">
+      <c r="DJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" t="n">
         <v>3</v>
       </c>
-      <c r="DJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM18" t="n">
+      <c r="DN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ18" t="n">
         <v>4</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>3</v>
       </c>
       <c r="DR18" t="n">
         <v>0</v>
@@ -7858,31 +7861,31 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>60</v>
       </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>75</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>36</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -7924,25 +7927,25 @@
         <v>0</v>
       </c>
       <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
         <v>2</v>
       </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
         <v>51</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>40</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
@@ -7978,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BV19" t="n">
         <v>1</v>
@@ -8002,31 +8005,31 @@
         <v>0</v>
       </c>
       <c r="CC19" t="n">
+        <v>16</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>22</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>22</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>15</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -8086,19 +8089,19 @@
         <v>0</v>
       </c>
       <c r="DE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>7</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>4</v>
       </c>
       <c r="DJ19" t="n">
         <v>0</v>
@@ -8122,19 +8125,19 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU19" t="n">
         <v>4</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>5</v>
       </c>
       <c r="DV19" t="n">
         <v>0</v>
@@ -8295,31 +8298,31 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>70</v>
       </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>110</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>48</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -8358,28 +8361,28 @@
         <v>47</v>
       </c>
       <c r="BB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
         <v>2</v>
       </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
         <v>68</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>53</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -8415,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="BV20" t="n">
         <v>1</v>
@@ -8439,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="CD20" t="n">
         <v>1</v>
@@ -8451,19 +8454,19 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
+        <v>16</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>31</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>16</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -8523,55 +8526,55 @@
         <v>0</v>
       </c>
       <c r="DE20" t="n">
+        <v>7</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI20" t="n">
         <v>11</v>
       </c>
-      <c r="DF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI20" t="n">
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ20" t="n">
         <v>7</v>
       </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
+      <c r="DR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
         <v>6</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>5</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>7</v>
       </c>
       <c r="DV20" t="n">
         <v>0</v>
@@ -8732,31 +8735,31 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>106</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>132</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>72</v>
       </c>
       <c r="AP21" t="n">
         <v>1</v>
@@ -8798,25 +8801,25 @@
         <v>1</v>
       </c>
       <c r="BC21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>66</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG21" t="n">
         <v>2</v>
       </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
         <v>91</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>66</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -8852,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BV21" t="n">
         <v>1</v>
@@ -8876,10 +8879,10 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="CD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8888,19 +8891,19 @@
         <v>0</v>
       </c>
       <c r="CG21" t="n">
+        <v>30</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
         <v>40</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>30</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8960,20 +8963,20 @@
         <v>0</v>
       </c>
       <c r="DE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>13</v>
       </c>
-      <c r="DF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>11</v>
-      </c>
       <c r="DJ21" t="n">
         <v>0</v>
       </c>
@@ -8984,31 +8987,31 @@
         <v>0</v>
       </c>
       <c r="DM21" t="n">
+        <v>10</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
         <v>8</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>10</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>9</v>
       </c>
       <c r="DV21" t="n">
         <v>0</v>
@@ -9163,37 +9166,37 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
       <c r="AG22" t="n">
+        <v>109</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
         <v>152</v>
       </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
         <v>147</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>109</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -9241,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="BF22" t="n">
         <v>1</v>
@@ -9253,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -9289,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="BU22" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="BV22" t="n">
         <v>1</v>
@@ -9313,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="CD22" t="n">
         <v>1</v>
@@ -9325,19 +9328,19 @@
         <v>0</v>
       </c>
       <c r="CG22" t="n">
+        <v>33</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
         <v>43</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>33</v>
       </c>
       <c r="CL22" t="n">
         <v>0</v>
@@ -9397,20 +9400,20 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI22" t="n">
         <v>16</v>
       </c>
-      <c r="DF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>12</v>
-      </c>
       <c r="DJ22" t="n">
         <v>0</v>
       </c>
@@ -9421,25 +9424,25 @@
         <v>0</v>
       </c>
       <c r="DM22" t="n">
+        <v>13</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ22" t="n">
         <v>9</v>
       </c>
-      <c r="DN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>13</v>
-      </c>
       <c r="DR22" t="n">
         <v>0</v>
       </c>
       <c r="DS22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT22" t="n">
         <v>0</v>
@@ -9600,37 +9603,37 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>162</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>2</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
         <v>200</v>
       </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
         <v>165</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>162</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
@@ -9672,25 +9675,25 @@
         <v>1</v>
       </c>
       <c r="BC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="n">
         <v>4</v>
       </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
         <v>114</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>101</v>
       </c>
       <c r="BJ23" t="n">
         <v>0</v>
@@ -9726,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="BU23" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="BV23" t="n">
         <v>1</v>
@@ -9750,31 +9753,31 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="CD23" t="n">
         <v>1</v>
       </c>
       <c r="CE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF23" t="n">
         <v>0</v>
       </c>
       <c r="CG23" t="n">
+        <v>43</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
         <v>46</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>43</v>
       </c>
       <c r="CL23" t="n">
         <v>0</v>
@@ -9834,19 +9837,19 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
         <v>18</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>17</v>
       </c>
       <c r="DJ23" t="n">
         <v>0</v>
@@ -9864,25 +9867,25 @@
         <v>0</v>
       </c>
       <c r="DO23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP23" t="n">
         <v>0</v>
       </c>
       <c r="DQ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU23" t="n">
         <v>14</v>
-      </c>
-      <c r="DR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU23" t="n">
-        <v>12</v>
       </c>
       <c r="DV23" t="n">
         <v>0</v>
@@ -9942,6 +9945,443 @@
         <v>0</v>
       </c>
       <c r="EO23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:145">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="n">
+        <v>213</v>
+      </c>
+      <c r="C24" t="n">
+        <v>176</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15238</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9731</v>
+      </c>
+      <c r="F24" t="n">
+        <v>159</v>
+      </c>
+      <c r="G24" t="n">
+        <v>75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2639</v>
+      </c>
+      <c r="J24" t="n">
+        <v>204</v>
+      </c>
+      <c r="K24" t="n">
+        <v>86</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5806</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>537</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>393</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>352</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>332</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>240</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>237</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>206</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>178</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>177</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>168</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>128</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>121</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>120</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>87</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>87</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>82</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>76</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>59</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>49</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>45</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>39</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>32</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>17</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>14</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>12</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>8</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>7</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO24" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>全国</t>
   </si>
@@ -41,16 +41,16 @@
     <t>江西</t>
   </si>
   <si>
+    <t>重庆</t>
+  </si>
+  <si>
     <t>安徽</t>
   </si>
   <si>
-    <t>重庆</t>
+    <t>四川</t>
   </si>
   <si>
     <t>山东</t>
-  </si>
-  <si>
-    <t>四川</t>
   </si>
   <si>
     <t>江苏</t>
@@ -68,13 +68,16 @@
     <t>广西</t>
   </si>
   <si>
+    <t>河北</t>
+  </si>
+  <si>
     <t>陕西</t>
   </si>
   <si>
-    <t>河北</t>
+    <t>云南</t>
   </si>
   <si>
-    <t>云南</t>
+    <t>辽宁</t>
   </si>
   <si>
     <t>黑龙江</t>
@@ -83,16 +86,16 @@
     <t>海南</t>
   </si>
   <si>
-    <t>辽宁</t>
+    <t>山西</t>
   </si>
   <si>
-    <t>山西</t>
+    <t>甘肃</t>
   </si>
   <si>
     <t>天津</t>
   </si>
   <si>
-    <t>甘肃</t>
+    <t>贵州</t>
   </si>
   <si>
     <t>宁夏</t>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>新疆</t>
-  </si>
-  <si>
-    <t>贵州</t>
   </si>
   <si>
     <t>吉林</t>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO24"/>
+  <dimension ref="A1:EO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6122,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -6134,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -6146,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
         <v>1</v>
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -6266,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -6278,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -6317,20 +6320,20 @@
         <v>0</v>
       </c>
       <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="n">
         <v>2</v>
       </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0</v>
-      </c>
       <c r="DB15" t="n">
         <v>0</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI15" t="n">
         <v>0</v>
@@ -6374,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
@@ -6559,22 +6562,22 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>4</v>
       </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -6583,22 +6586,22 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
         <v>2</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
@@ -6670,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
@@ -6682,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" t="n">
         <v>0</v>
@@ -6703,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -6715,23 +6718,23 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
         <v>4</v>
       </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>2</v>
-      </c>
       <c r="CP16" t="n">
         <v>0</v>
       </c>
@@ -6754,20 +6757,20 @@
         <v>0</v>
       </c>
       <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="n">
         <v>4</v>
       </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>0</v>
-      </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
@@ -6814,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR16" t="n">
         <v>0</v>
@@ -6996,22 +6999,22 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>4</v>
       </c>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>13</v>
-      </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -7020,22 +7023,22 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
         <v>2</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -7107,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV17" t="n">
         <v>0</v>
@@ -7119,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -7140,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -7155,20 +7158,20 @@
         <v>0</v>
       </c>
       <c r="CK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
         <v>4</v>
       </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>2</v>
-      </c>
       <c r="CP17" t="n">
         <v>0</v>
       </c>
@@ -7191,20 +7194,20 @@
         <v>0</v>
       </c>
       <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="n">
         <v>4</v>
       </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>0</v>
-      </c>
       <c r="DB17" t="n">
         <v>0</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -7251,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR17" t="n">
         <v>0</v>
@@ -7436,43 +7439,43 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
+        <v>57</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>39</v>
       </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>57</v>
-      </c>
       <c r="AP18" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
         <v>21</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>28</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -7535,7 +7538,7 @@
         <v>23</v>
       </c>
       <c r="BR18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
@@ -7544,19 +7547,19 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
         <v>15</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>8</v>
       </c>
       <c r="BZ18" t="n">
         <v>0</v>
@@ -7571,7 +7574,7 @@
         <v>5</v>
       </c>
       <c r="CD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7580,31 +7583,31 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>9</v>
       </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
         <v>17</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>12</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -7628,67 +7631,67 @@
         <v>0</v>
       </c>
       <c r="CW18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="n">
         <v>9</v>
       </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA18" t="n">
+      <c r="DB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
         <v>4</v>
       </c>
-      <c r="DB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
+      <c r="DF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>3</v>
       </c>
-      <c r="DF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="n">
+      <c r="DJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" t="n">
         <v>2</v>
       </c>
-      <c r="DJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM18" t="n">
+      <c r="DN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ18" t="n">
         <v>3</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>4</v>
       </c>
       <c r="DR18" t="n">
         <v>0</v>
@@ -7873,20 +7876,20 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>60</v>
       </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>75</v>
-      </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
@@ -7897,19 +7900,19 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
         <v>39</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>44</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -7972,7 +7975,7 @@
         <v>33</v>
       </c>
       <c r="BR19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
@@ -7981,19 +7984,19 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
         <v>22</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>13</v>
       </c>
       <c r="BZ19" t="n">
         <v>0</v>
@@ -8008,7 +8011,7 @@
         <v>16</v>
       </c>
       <c r="CD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -8017,31 +8020,31 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>15</v>
       </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>22</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>17</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -8065,67 +8068,67 @@
         <v>0</v>
       </c>
       <c r="CW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
         <v>13</v>
       </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA19" t="n">
+      <c r="DB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>5</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM19" t="n">
         <v>7</v>
       </c>
-      <c r="DB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
+      <c r="DN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ19" t="n">
         <v>4</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>7</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>4</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>5</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -8310,20 +8313,20 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>70</v>
       </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>110</v>
-      </c>
       <c r="AP20" t="n">
         <v>0</v>
       </c>
@@ -8334,19 +8337,19 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
+        <v>69</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
         <v>63</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>69</v>
       </c>
       <c r="AX20" t="n">
         <v>0</v>
@@ -8409,7 +8412,7 @@
         <v>46</v>
       </c>
       <c r="BR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
@@ -8418,19 +8421,19 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
         <v>35</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>18</v>
       </c>
       <c r="BZ20" t="n">
         <v>0</v>
@@ -8445,7 +8448,7 @@
         <v>19</v>
       </c>
       <c r="CD20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -8454,31 +8457,31 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
+        <v>22</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>16</v>
       </c>
-      <c r="CH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
+      <c r="CL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>31</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>22</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -8502,19 +8505,19 @@
         <v>0</v>
       </c>
       <c r="CW20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="n">
         <v>17</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>14</v>
       </c>
       <c r="DB20" t="n">
         <v>0</v>
@@ -8538,31 +8541,31 @@
         <v>0</v>
       </c>
       <c r="DI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
         <v>11</v>
       </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
+      <c r="DN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ20" t="n">
         <v>5</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>7</v>
       </c>
       <c r="DR20" t="n">
         <v>0</v>
@@ -8747,22 +8750,22 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
+        <v>132</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>106</v>
       </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>132</v>
-      </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -8771,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
         <v>87</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>90</v>
       </c>
       <c r="AX21" t="n">
         <v>0</v>
@@ -8846,7 +8849,7 @@
         <v>51</v>
       </c>
       <c r="BR21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
@@ -8855,19 +8858,19 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
+        <v>33</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
         <v>46</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>33</v>
       </c>
       <c r="BZ21" t="n">
         <v>0</v>
@@ -8882,7 +8885,7 @@
         <v>44</v>
       </c>
       <c r="CD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8894,7 +8897,7 @@
         <v>30</v>
       </c>
       <c r="CH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -8903,19 +8906,19 @@
         <v>0</v>
       </c>
       <c r="CK21" t="n">
+        <v>30</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
         <v>40</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>30</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -8939,20 +8942,20 @@
         <v>0</v>
       </c>
       <c r="CW21" t="n">
+        <v>19</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
         <v>23</v>
       </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>19</v>
-      </c>
       <c r="DB21" t="n">
         <v>0</v>
       </c>
@@ -8963,43 +8966,43 @@
         <v>0</v>
       </c>
       <c r="DE21" t="n">
+        <v>9</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>11</v>
       </c>
-      <c r="DF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM21" t="n">
         <v>13</v>
       </c>
-      <c r="DJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM21" t="n">
+      <c r="DN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ21" t="n">
         <v>10</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>9</v>
       </c>
       <c r="DR21" t="n">
         <v>0</v>
@@ -9184,20 +9187,20 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
         <v>152</v>
       </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>147</v>
-      </c>
       <c r="AP22" t="n">
         <v>0</v>
       </c>
@@ -9208,19 +9211,19 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
+        <v>108</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
         <v>121</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>108</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -9283,7 +9286,7 @@
         <v>58</v>
       </c>
       <c r="BR22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
@@ -9292,19 +9295,19 @@
         <v>0</v>
       </c>
       <c r="BU22" t="n">
+        <v>48</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
         <v>56</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>48</v>
       </c>
       <c r="BZ22" t="n">
         <v>0</v>
@@ -9319,7 +9322,7 @@
         <v>51</v>
       </c>
       <c r="CD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -9328,31 +9331,31 @@
         <v>0</v>
       </c>
       <c r="CG22" t="n">
+        <v>36</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
         <v>33</v>
       </c>
-      <c r="CH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
+      <c r="CL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
         <v>43</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>36</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -9376,67 +9379,67 @@
         <v>0</v>
       </c>
       <c r="CW22" t="n">
+        <v>24</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
         <v>25</v>
       </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>24</v>
-      </c>
       <c r="DB22" t="n">
         <v>0</v>
       </c>
       <c r="DC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD22" t="n">
         <v>0</v>
       </c>
       <c r="DE22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI22" t="n">
         <v>12</v>
       </c>
-      <c r="DF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="n">
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
         <v>16</v>
       </c>
-      <c r="DJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
+      <c r="DN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ22" t="n">
         <v>13</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>9</v>
       </c>
       <c r="DR22" t="n">
         <v>0</v>
@@ -9615,28 +9618,28 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>165</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
         <v>2</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
         <v>200</v>
       </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>165</v>
-      </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -9645,19 +9648,19 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
+        <v>142</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
         <v>145</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>142</v>
       </c>
       <c r="AX23" t="n">
         <v>0</v>
@@ -9720,7 +9723,7 @@
         <v>78</v>
       </c>
       <c r="BR23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
@@ -9729,19 +9732,19 @@
         <v>0</v>
       </c>
       <c r="BU23" t="n">
+        <v>65</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
         <v>63</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>65</v>
       </c>
       <c r="BZ23" t="n">
         <v>0</v>
@@ -9756,40 +9759,40 @@
         <v>70</v>
       </c>
       <c r="CD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF23" t="n">
         <v>0</v>
       </c>
       <c r="CG23" t="n">
+        <v>41</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
         <v>43</v>
       </c>
-      <c r="CH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
+      <c r="CL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
         <v>46</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>41</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -9813,67 +9816,67 @@
         <v>0</v>
       </c>
       <c r="CW23" t="n">
+        <v>26</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="n">
         <v>28</v>
       </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>26</v>
-      </c>
       <c r="DB23" t="n">
         <v>0</v>
       </c>
       <c r="DC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD23" t="n">
         <v>0</v>
       </c>
       <c r="DE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
         <v>17</v>
       </c>
-      <c r="DF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="n">
+      <c r="DJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM23" t="n">
         <v>18</v>
       </c>
-      <c r="DJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM23" t="n">
+      <c r="DN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ23" t="n">
         <v>14</v>
-      </c>
-      <c r="DN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ23" t="n">
-        <v>12</v>
       </c>
       <c r="DR23" t="n">
         <v>0</v>
@@ -9956,13 +9959,13 @@
         <v>213</v>
       </c>
       <c r="C24" t="n">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D24" t="n">
         <v>15238</v>
       </c>
       <c r="E24" t="n">
-        <v>9731</v>
+        <v>9812</v>
       </c>
       <c r="F24" t="n">
         <v>159</v>
@@ -10052,49 +10055,49 @@
         <v>0</v>
       </c>
       <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>206</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
         <v>3</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>237</v>
       </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>206</v>
-      </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>177</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
         <v>2</v>
       </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
         <v>178</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>177</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
@@ -10157,7 +10160,7 @@
         <v>87</v>
       </c>
       <c r="BR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
@@ -10166,19 +10169,19 @@
         <v>0</v>
       </c>
       <c r="BU24" t="n">
+        <v>82</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
         <v>87</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>82</v>
       </c>
       <c r="BZ24" t="n">
         <v>0</v>
@@ -10193,40 +10196,40 @@
         <v>76</v>
       </c>
       <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="CH24" t="n">
         <v>2</v>
       </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
         <v>59</v>
       </c>
-      <c r="CH24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK24" t="n">
+      <c r="CL24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
         <v>49</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>45</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -10250,67 +10253,67 @@
         <v>0</v>
       </c>
       <c r="CW24" t="n">
+        <v>29</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
         <v>32</v>
       </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>29</v>
-      </c>
       <c r="DB24" t="n">
         <v>0</v>
       </c>
       <c r="DC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD24" t="n">
         <v>0</v>
       </c>
       <c r="DE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
         <v>21</v>
       </c>
-      <c r="DF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI24" t="n">
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM24" t="n">
         <v>19</v>
       </c>
-      <c r="DJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM24" t="n">
+      <c r="DN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ24" t="n">
         <v>17</v>
-      </c>
-      <c r="DN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO24" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ24" t="n">
-        <v>15</v>
       </c>
       <c r="DR24" t="n">
         <v>0</v>
@@ -10340,13 +10343,13 @@
         <v>0</v>
       </c>
       <c r="EA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB24" t="n">
         <v>0</v>
       </c>
       <c r="EC24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="ED24" t="n">
         <v>0</v>
@@ -10382,6 +10385,443 @@
         <v>0</v>
       </c>
       <c r="EO24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:145">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="n">
+        <v>258</v>
+      </c>
+      <c r="C25" t="n">
+        <v>193</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17988</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11403</v>
+      </c>
+      <c r="F25" t="n">
+        <v>192</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3215</v>
+      </c>
+      <c r="J25" t="n">
+        <v>249</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7153</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>11</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>537</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>11</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>436</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>422</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>332</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>286</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>238</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>237</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>207</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>184</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>168</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>153</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>139</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>120</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>96</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>87</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>83</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>60</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>59</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>53</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>47</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>35</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>32</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>29</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>20</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>17</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>14</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>12</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>8</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>7</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>全国</t>
   </si>
@@ -38,13 +38,16 @@
     <t>湖南</t>
   </si>
   <si>
+    <t>安徽</t>
+  </si>
+  <si>
     <t>江西</t>
   </si>
   <si>
     <t>重庆</t>
   </si>
   <si>
-    <t>安徽</t>
+    <t>江苏</t>
   </si>
   <si>
     <t>四川</t>
@@ -53,34 +56,31 @@
     <t>山东</t>
   </si>
   <si>
-    <t>江苏</t>
+    <t>北京</t>
   </si>
   <si>
     <t>上海</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>福建</t>
   </si>
   <si>
-    <t>福建</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>广西</t>
   </si>
   <si>
+    <t>云南</t>
+  </si>
+  <si>
     <t>河北</t>
   </si>
   <si>
-    <t>陕西</t>
-  </si>
-  <si>
-    <t>云南</t>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
   </si>
   <si>
     <t>海南</t>
@@ -89,10 +89,10 @@
     <t>山西</t>
   </si>
   <si>
-    <t>甘肃</t>
+    <t>天津</t>
   </si>
   <si>
-    <t>天津</t>
+    <t>甘肃</t>
   </si>
   <si>
     <t>贵州</t>
@@ -104,19 +104,19 @@
     <t>内蒙古</t>
   </si>
   <si>
-    <t>新疆</t>
+    <t>吉林</t>
   </si>
   <si>
-    <t>吉林</t>
+    <t>新疆</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>台湾</t>
+    <t>青海</t>
   </si>
   <si>
-    <t>青海</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>澳门</t>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO25"/>
+  <dimension ref="A1:EO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6125,23 +6128,23 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>5</v>
       </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
       <c r="AP15" t="n">
         <v>0</v>
       </c>
@@ -6149,20 +6152,20 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
         <v>2</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" t="n">
         <v>0</v>
@@ -6185,23 +6188,23 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
         <v>3</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BI15" t="n">
         <v>6</v>
       </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ15" t="n">
         <v>0</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0</v>
@@ -6233,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -6245,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY15" t="n">
         <v>0</v>
@@ -6257,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -6269,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -6281,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -6320,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CX15" t="n">
         <v>0</v>
@@ -6332,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="DA15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
@@ -6377,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
@@ -6389,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="DT15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
         <v>0</v>
@@ -6416,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
         <v>0</v>
@@ -6428,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -6550,35 +6553,35 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>2</v>
       </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>6</v>
       </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1</v>
-      </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
@@ -6586,35 +6589,35 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
         <v>2</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AW16" t="n">
         <v>5</v>
       </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
         <v>2</v>
       </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>1</v>
-      </c>
       <c r="BB16" t="n">
         <v>0</v>
       </c>
@@ -6622,23 +6625,23 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
         <v>10</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BI16" t="n">
         <v>9</v>
       </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>14</v>
-      </c>
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
@@ -6658,23 +6661,23 @@
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU16" t="n">
         <v>2</v>
       </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>1</v>
-      </c>
       <c r="BV16" t="n">
         <v>0</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" t="n">
         <v>0</v>
@@ -6706,22 +6709,22 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
         <v>2</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6757,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX16" t="n">
         <v>0</v>
@@ -6769,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="DA16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
@@ -6814,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="DP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ16" t="n">
         <v>0</v>
@@ -6826,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="DT16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU16" t="n">
         <v>0</v>
@@ -6853,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
         <v>0</v>
@@ -6865,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -6987,35 +6990,35 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
         <v>2</v>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>13</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AO17" t="n">
         <v>6</v>
       </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1</v>
-      </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
@@ -7023,35 +7026,35 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
         <v>2</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AW17" t="n">
         <v>5</v>
       </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
         <v>2</v>
       </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>1</v>
-      </c>
       <c r="BB17" t="n">
         <v>0</v>
       </c>
@@ -7059,23 +7062,23 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
         <v>10</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BI17" t="n">
         <v>9</v>
       </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>14</v>
-      </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
@@ -7098,20 +7101,20 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
         <v>5</v>
       </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>1</v>
-      </c>
       <c r="BV17" t="n">
         <v>0</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -7143,22 +7146,22 @@
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK17" t="n">
         <v>2</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>1</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -7194,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX17" t="n">
         <v>0</v>
@@ -7206,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="DA17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DB17" t="n">
         <v>0</v>
@@ -7251,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="DP17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ17" t="n">
         <v>0</v>
@@ -7263,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="DT17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU17" t="n">
         <v>0</v>
@@ -7287,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="EB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED17" t="n">
         <v>0</v>
@@ -7299,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH17" t="n">
         <v>0</v>
@@ -7427,91 +7430,91 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>18</v>
       </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>57</v>
       </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>39</v>
-      </c>
       <c r="AP18" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
         <v>28</v>
       </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
         <v>21</v>
       </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>18</v>
-      </c>
       <c r="BB18" t="n">
         <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD18" t="n">
         <v>0</v>
       </c>
       <c r="BE18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
         <v>33</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>41</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -7535,46 +7538,46 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
         <v>23</v>
       </c>
-      <c r="BR18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU18" t="n">
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
         <v>8</v>
       </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>15</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>5</v>
-      </c>
       <c r="CD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7583,19 +7586,19 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>12</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>9</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7631,19 +7634,19 @@
         <v>0</v>
       </c>
       <c r="CW18" t="n">
+        <v>9</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="n">
         <v>4</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>9</v>
       </c>
       <c r="DB18" t="n">
         <v>0</v>
@@ -7691,19 +7694,19 @@
         <v>0</v>
       </c>
       <c r="DQ18" t="n">
+        <v>4</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU18" t="n">
         <v>3</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>4</v>
       </c>
       <c r="DV18" t="n">
         <v>0</v>
@@ -7727,19 +7730,19 @@
         <v>0</v>
       </c>
       <c r="EC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG18" t="n">
         <v>3</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>1</v>
       </c>
       <c r="EH18" t="n">
         <v>0</v>
@@ -7864,91 +7867,91 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>36</v>
       </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>75</v>
       </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>60</v>
-      </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
+        <v>31</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
         <v>44</v>
       </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
         <v>39</v>
       </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>31</v>
-      </c>
       <c r="BB19" t="n">
         <v>0</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
       <c r="BE19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
         <v>40</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>51</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
@@ -7972,46 +7975,46 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
         <v>33</v>
       </c>
-      <c r="BR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU19" t="n">
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>13</v>
       </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>22</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>16</v>
-      </c>
       <c r="CD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -8020,19 +8023,19 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>17</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>15</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -8068,19 +8071,19 @@
         <v>0</v>
       </c>
       <c r="CW19" t="n">
+        <v>13</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
         <v>7</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>13</v>
       </c>
       <c r="DB19" t="n">
         <v>0</v>
@@ -8164,19 +8167,19 @@
         <v>0</v>
       </c>
       <c r="EC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG19" t="n">
         <v>4</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>1</v>
       </c>
       <c r="EH19" t="n">
         <v>0</v>
@@ -8211,7 +8214,7 @@
         <v>82</v>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="n">
         <v>5794</v>
@@ -8301,91 +8304,91 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>48</v>
       </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>110</v>
       </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>70</v>
-      </c>
       <c r="AP20" t="n">
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
       </c>
       <c r="AS20" t="n">
+        <v>47</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
         <v>69</v>
       </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
         <v>63</v>
       </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>47</v>
-      </c>
       <c r="BB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD20" t="n">
         <v>0</v>
       </c>
       <c r="BE20" t="n">
+        <v>68</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
         <v>53</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>68</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -8409,46 +8412,46 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
+        <v>35</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
         <v>46</v>
       </c>
-      <c r="BR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>18</v>
       </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>35</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>19</v>
-      </c>
       <c r="CD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -8457,19 +8460,19 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
+        <v>16</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>22</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>16</v>
       </c>
       <c r="CL20" t="n">
         <v>1</v>
@@ -8505,19 +8508,19 @@
         <v>0</v>
       </c>
       <c r="CW20" t="n">
+        <v>17</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="n">
         <v>14</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>17</v>
       </c>
       <c r="DB20" t="n">
         <v>0</v>
@@ -8565,19 +8568,19 @@
         <v>0</v>
       </c>
       <c r="DQ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
         <v>5</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>6</v>
       </c>
       <c r="DV20" t="n">
         <v>0</v>
@@ -8601,19 +8604,19 @@
         <v>0</v>
       </c>
       <c r="EC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG20" t="n">
         <v>5</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>4</v>
       </c>
       <c r="EH20" t="n">
         <v>0</v>
@@ -8738,91 +8741,91 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
+        <v>106</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>72</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>132</v>
       </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>106</v>
-      </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
       </c>
       <c r="AS21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
         <v>90</v>
       </c>
-      <c r="AT21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
         <v>87</v>
       </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>70</v>
-      </c>
       <c r="BB21" t="n">
         <v>1</v>
       </c>
       <c r="BC21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>91</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG21" t="n">
         <v>3</v>
       </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
         <v>66</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>91</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -8846,46 +8849,46 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
+        <v>46</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
         <v>51</v>
       </c>
-      <c r="BR21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU21" t="n">
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>44</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>33</v>
       </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>46</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>44</v>
-      </c>
       <c r="CD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8897,7 +8900,7 @@
         <v>30</v>
       </c>
       <c r="CH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -8942,19 +8945,19 @@
         <v>0</v>
       </c>
       <c r="CW21" t="n">
+        <v>23</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
         <v>19</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>23</v>
       </c>
       <c r="DB21" t="n">
         <v>0</v>
@@ -9002,19 +9005,19 @@
         <v>0</v>
       </c>
       <c r="DQ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
         <v>10</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>8</v>
       </c>
       <c r="DV21" t="n">
         <v>0</v>
@@ -9038,19 +9041,19 @@
         <v>0</v>
       </c>
       <c r="EC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG21" t="n">
         <v>7</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>6</v>
       </c>
       <c r="EH21" t="n">
         <v>0</v>
@@ -9169,73 +9172,73 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>152</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
         <v>3</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
         <v>109</v>
       </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
         <v>147</v>
       </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>152</v>
-      </c>
       <c r="AP22" t="n">
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
       </c>
       <c r="AS22" t="n">
+        <v>99</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
         <v>108</v>
       </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
         <v>121</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>99</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -9247,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="BF22" t="n">
         <v>1</v>
@@ -9259,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -9277,52 +9280,52 @@
         <v>0</v>
       </c>
       <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>56</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
         <v>2</v>
       </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
         <v>58</v>
       </c>
-      <c r="BR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU22" t="n">
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
         <v>48</v>
       </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>56</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>51</v>
-      </c>
       <c r="CD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -9331,19 +9334,19 @@
         <v>0</v>
       </c>
       <c r="CG22" t="n">
+        <v>33</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
         <v>36</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>33</v>
       </c>
       <c r="CL22" t="n">
         <v>1</v>
@@ -9379,19 +9382,19 @@
         <v>0</v>
       </c>
       <c r="CW22" t="n">
+        <v>25</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
         <v>24</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>25</v>
       </c>
       <c r="DB22" t="n">
         <v>0</v>
@@ -9439,19 +9442,19 @@
         <v>0</v>
       </c>
       <c r="DQ22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU22" t="n">
         <v>13</v>
-      </c>
-      <c r="DR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU22" t="n">
-        <v>9</v>
       </c>
       <c r="DV22" t="n">
         <v>0</v>
@@ -9475,19 +9478,19 @@
         <v>0</v>
       </c>
       <c r="EC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG22" t="n">
         <v>8</v>
-      </c>
-      <c r="ED22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG22" t="n">
-        <v>6</v>
       </c>
       <c r="EH22" t="n">
         <v>0</v>
@@ -9606,40 +9609,40 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>3</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
         <v>162</v>
       </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
         <v>165</v>
       </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>200</v>
-      </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -9648,55 +9651,55 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
+        <v>129</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
         <v>142</v>
       </c>
-      <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
         <v>145</v>
       </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>129</v>
-      </c>
       <c r="BB23" t="n">
         <v>1</v>
       </c>
       <c r="BC23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>114</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="n">
         <v>11</v>
       </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
         <v>101</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>114</v>
       </c>
       <c r="BJ23" t="n">
         <v>0</v>
@@ -9714,73 +9717,73 @@
         <v>0</v>
       </c>
       <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>63</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
         <v>2</v>
       </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
         <v>78</v>
       </c>
-      <c r="BR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU23" t="n">
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>70</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
         <v>65</v>
       </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>63</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>70</v>
-      </c>
       <c r="CD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF23" t="n">
         <v>0</v>
       </c>
       <c r="CG23" t="n">
+        <v>43</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
         <v>41</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>43</v>
       </c>
       <c r="CL23" t="n">
         <v>1</v>
@@ -9816,19 +9819,19 @@
         <v>0</v>
       </c>
       <c r="CW23" t="n">
+        <v>28</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="n">
         <v>26</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>28</v>
       </c>
       <c r="DB23" t="n">
         <v>0</v>
@@ -9912,19 +9915,19 @@
         <v>0</v>
       </c>
       <c r="EC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG23" t="n">
         <v>9</v>
-      </c>
-      <c r="ED23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG23" t="n">
-        <v>8</v>
       </c>
       <c r="EH23" t="n">
         <v>0</v>
@@ -9959,7 +9962,7 @@
         <v>213</v>
       </c>
       <c r="C24" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D24" t="n">
         <v>15238</v>
@@ -10043,61 +10046,61 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>237</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>7</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
         <v>240</v>
       </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>206</v>
       </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>237</v>
-      </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
       </c>
       <c r="AS24" t="n">
+        <v>168</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
         <v>177</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>178</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
@@ -10109,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -10121,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="BE24" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="BF24" t="n">
         <v>1</v>
@@ -10133,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -10151,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
@@ -10160,64 +10163,64 @@
         <v>87</v>
       </c>
       <c r="BR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT24" t="n">
         <v>0</v>
       </c>
       <c r="BU24" t="n">
+        <v>87</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>76</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>82</v>
       </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>87</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>76</v>
-      </c>
       <c r="CD24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF24" t="n">
         <v>0</v>
       </c>
       <c r="CG24" t="n">
+        <v>59</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
         <v>45</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>2</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>59</v>
       </c>
       <c r="CL24" t="n">
         <v>1</v>
@@ -10253,19 +10256,19 @@
         <v>0</v>
       </c>
       <c r="CW24" t="n">
+        <v>32</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
         <v>29</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>32</v>
       </c>
       <c r="DB24" t="n">
         <v>0</v>
@@ -10307,25 +10310,25 @@
         <v>0</v>
       </c>
       <c r="DO24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP24" t="n">
         <v>0</v>
       </c>
       <c r="DQ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU24" t="n">
         <v>17</v>
-      </c>
-      <c r="DR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS24" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU24" t="n">
-        <v>14</v>
       </c>
       <c r="DV24" t="n">
         <v>0</v>
@@ -10343,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="EA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB24" t="n">
         <v>0</v>
       </c>
       <c r="EC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG24" t="n">
         <v>10</v>
-      </c>
-      <c r="ED24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG24" t="n">
-        <v>8</v>
       </c>
       <c r="EH24" t="n">
         <v>0</v>
@@ -10393,22 +10396,22 @@
         <v>61</v>
       </c>
       <c r="B25" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" t="n">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="D25" t="n">
         <v>17988</v>
       </c>
       <c r="E25" t="n">
-        <v>11403</v>
+        <v>11901</v>
       </c>
       <c r="F25" t="n">
         <v>192</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -10420,7 +10423,7 @@
         <v>249</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -10432,25 +10435,25 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>436</v>
+        <v>520</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -10468,193 +10471,193 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>389</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>297</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>286</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>238</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>202</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>207</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
         <v>2</v>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>332</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>202</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>156</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG25" t="n">
         <v>9</v>
       </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>286</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>238</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>237</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>207</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>153</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>144</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
         <v>2</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>184</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>168</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>153</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>139</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>120</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>91</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>96</v>
+      </c>
+      <c r="CD25" t="n">
         <v>2</v>
       </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>100</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>96</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>87</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>83</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
       <c r="CE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF25" t="n">
         <v>0</v>
       </c>
       <c r="CG25" t="n">
+        <v>80</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
         <v>60</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>59</v>
       </c>
       <c r="CL25" t="n">
         <v>1</v>
@@ -10690,19 +10693,19 @@
         <v>0</v>
       </c>
       <c r="CW25" t="n">
+        <v>34</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="n">
         <v>35</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>32</v>
       </c>
       <c r="DB25" t="n">
         <v>0</v>
@@ -10726,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="DI25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="DJ25" t="n">
         <v>0</v>
@@ -10738,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="DM25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="DN25" t="n">
         <v>0</v>
       </c>
       <c r="DO25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP25" t="n">
         <v>0</v>
@@ -10756,13 +10759,13 @@
         <v>0</v>
       </c>
       <c r="DS25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT25" t="n">
         <v>0</v>
       </c>
       <c r="DU25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="DV25" t="n">
         <v>0</v>
@@ -10774,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="DY25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DZ25" t="n">
         <v>0</v>
@@ -10786,19 +10789,19 @@
         <v>0</v>
       </c>
       <c r="EC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG25" t="n">
         <v>10</v>
-      </c>
-      <c r="ED25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG25" t="n">
-        <v>8</v>
       </c>
       <c r="EH25" t="n">
         <v>0</v>
@@ -10822,6 +10825,443 @@
         <v>0</v>
       </c>
       <c r="EO25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:145">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="n">
+        <v>304</v>
+      </c>
+      <c r="C26" t="n">
+        <v>385</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19544</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14489</v>
+      </c>
+      <c r="F26" t="n">
+        <v>224</v>
+      </c>
+      <c r="G26" t="n">
+        <v>138</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4109</v>
+      </c>
+      <c r="J26" t="n">
+        <v>294</v>
+      </c>
+      <c r="K26" t="n">
+        <v>215</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9074</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>23</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>661</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>604</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>493</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>463</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>333</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>262</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>236</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>231</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>225</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>183</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>177</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>159</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>116</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>111</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>99</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>104</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>95</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>69</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>63</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>56</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>45</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>40</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>38</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>28</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>27</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>7</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>22</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>21</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>14</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>8</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -10836,13 +10836,13 @@
         <v>304</v>
       </c>
       <c r="C26" t="n">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="D26" t="n">
         <v>19544</v>
       </c>
       <c r="E26" t="n">
-        <v>14489</v>
+        <v>14490</v>
       </c>
       <c r="F26" t="n">
         <v>224</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="CY26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CZ26" t="n">
         <v>0</v>

--- a/data/virus/dxy_data_recent_daily.xlsx
+++ b/data/virus/dxy_data_recent_daily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>全国</t>
   </si>
@@ -26,10 +26,10 @@
     <t>湖北</t>
   </si>
   <si>
-    <t>浙江</t>
+    <t>广东</t>
   </si>
   <si>
-    <t>广东</t>
+    <t>浙江</t>
   </si>
   <si>
     <t>河南</t>
@@ -50,10 +50,10 @@
     <t>江苏</t>
   </si>
   <si>
-    <t>四川</t>
+    <t>山东</t>
   </si>
   <si>
-    <t>山东</t>
+    <t>四川</t>
   </si>
   <si>
     <t>北京</t>
@@ -71,13 +71,13 @@
     <t>广西</t>
   </si>
   <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
     <t>云南</t>
   </si>
   <si>
     <t>河北</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
@@ -98,10 +98,10 @@
     <t>贵州</t>
   </si>
   <si>
-    <t>宁夏</t>
+    <t>内蒙古</t>
   </si>
   <si>
-    <t>内蒙古</t>
+    <t>宁夏</t>
   </si>
   <si>
     <t>吉林</t>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO26"/>
+  <dimension ref="A1:EO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6068,22 +6071,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>17</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>11</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="U15" t="n">
         <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>17</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -6164,19 +6167,19 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>2</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -6248,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
         <v>0</v>
@@ -6260,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -6356,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
         <v>0</v>
@@ -6368,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM15" t="n">
         <v>0</v>
@@ -6505,22 +6508,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
+        <v>26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>10</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>26</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -6601,22 +6604,22 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
         <v>2</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA16" t="n">
         <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>2</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
@@ -6685,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" t="n">
         <v>0</v>
@@ -6709,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -6796,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
@@ -6808,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="DM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN16" t="n">
         <v>0</v>
@@ -6942,22 +6945,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
+        <v>26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>10</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" t="n">
-        <v>26</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -7038,22 +7041,22 @@
         <v>0</v>
       </c>
       <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
         <v>2</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA17" t="n">
         <v>5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>2</v>
       </c>
       <c r="BB17" t="n">
         <v>0</v>
@@ -7233,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -7245,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="DM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -7376,25 +7379,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>78</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>62</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>78</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -7472,25 +7475,25 @@
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
         <v>28</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
@@ -7553,7 +7556,7 @@
         <v>23</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -7562,31 +7565,31 @@
         <v>0</v>
       </c>
       <c r="BY18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
         <v>5</v>
       </c>
-      <c r="BZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
+      <c r="CD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
         <v>8</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>9</v>
       </c>
       <c r="CH18" t="n">
         <v>0</v>
@@ -7670,19 +7673,19 @@
         <v>0</v>
       </c>
       <c r="DI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" t="n">
         <v>3</v>
-      </c>
-      <c r="DJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM18" t="n">
-        <v>2</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -7813,25 +7816,25 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>104</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>98</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -7915,19 +7918,19 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
+        <v>39</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
         <v>44</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>39</v>
       </c>
       <c r="BB19" t="n">
         <v>0</v>
@@ -7990,7 +7993,7 @@
         <v>33</v>
       </c>
       <c r="BV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -7999,31 +8002,31 @@
         <v>0</v>
       </c>
       <c r="BY19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>16</v>
       </c>
-      <c r="BZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
+      <c r="CD19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
         <v>13</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>15</v>
       </c>
       <c r="CH19" t="n">
         <v>0</v>
@@ -8107,19 +8110,19 @@
         <v>0</v>
       </c>
       <c r="DI19" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM19" t="n">
         <v>4</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>7</v>
       </c>
       <c r="DN19" t="n">
         <v>0</v>
@@ -8250,25 +8253,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>146</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>128</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>146</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -8352,19 +8355,19 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
+        <v>63</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
         <v>69</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>63</v>
       </c>
       <c r="BB20" t="n">
         <v>0</v>
@@ -8427,7 +8430,7 @@
         <v>46</v>
       </c>
       <c r="BV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -8436,31 +8439,31 @@
         <v>0</v>
       </c>
       <c r="BY20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>19</v>
       </c>
-      <c r="BZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
         <v>18</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>16</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -8544,19 +8547,19 @@
         <v>0</v>
       </c>
       <c r="DI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
         <v>7</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>11</v>
       </c>
       <c r="DN20" t="n">
         <v>0</v>
@@ -8687,25 +8690,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>188</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>173</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>188</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -8780,7 +8783,7 @@
         <v>70</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -8789,19 +8792,19 @@
         <v>0</v>
       </c>
       <c r="AW21" t="n">
+        <v>87</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
         <v>90</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>87</v>
       </c>
       <c r="BB21" t="n">
         <v>1</v>
@@ -8864,7 +8867,7 @@
         <v>51</v>
       </c>
       <c r="BV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8873,31 +8876,31 @@
         <v>0</v>
       </c>
       <c r="BY21" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>44</v>
       </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
+      <c r="CD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
         <v>33</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>30</v>
       </c>
       <c r="CH21" t="n">
         <v>0</v>
@@ -8981,19 +8984,19 @@
         <v>0</v>
       </c>
       <c r="DI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM21" t="n">
         <v>11</v>
-      </c>
-      <c r="DJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM21" t="n">
-        <v>13</v>
       </c>
       <c r="DN21" t="n">
         <v>0</v>
@@ -9124,25 +9127,25 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>241</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>296</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>241</v>
       </c>
       <c r="V22" t="n">
         <v>2</v>
@@ -9226,19 +9229,19 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
+        <v>121</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
         <v>108</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>121</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -9301,7 +9304,7 @@
         <v>58</v>
       </c>
       <c r="BV22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -9310,31 +9313,31 @@
         <v>0</v>
       </c>
       <c r="BY22" t="n">
+        <v>33</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
         <v>51</v>
       </c>
-      <c r="BZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
+      <c r="CD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
         <v>48</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>33</v>
       </c>
       <c r="CH22" t="n">
         <v>0</v>
@@ -9418,19 +9421,19 @@
         <v>0</v>
       </c>
       <c r="DI22" t="n">
+        <v>16</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
         <v>12</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>16</v>
       </c>
       <c r="DN22" t="n">
         <v>0</v>
@@ -9561,25 +9564,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>311</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>4</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>428</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>311</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -9654,7 +9657,7 @@
         <v>129</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" t="n">
         <v>1</v>
@@ -9663,19 +9666,19 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
+        <v>145</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
         <v>142</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>145</v>
       </c>
       <c r="BB23" t="n">
         <v>1</v>
@@ -9738,7 +9741,7 @@
         <v>78</v>
       </c>
       <c r="BV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW23" t="n">
         <v>0</v>
@@ -9747,31 +9750,31 @@
         <v>0</v>
       </c>
       <c r="BY23" t="n">
+        <v>43</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
         <v>70</v>
       </c>
-      <c r="BZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
+      <c r="CD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
         <v>65</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>43</v>
       </c>
       <c r="CH23" t="n">
         <v>0</v>
@@ -9855,19 +9858,19 @@
         <v>0</v>
       </c>
       <c r="DI23" t="n">
+        <v>18</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM23" t="n">
         <v>17</v>
-      </c>
-      <c r="DJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM23" t="n">
-        <v>18</v>
       </c>
       <c r="DN23" t="n">
         <v>0</v>
@@ -9998,25 +10001,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>393</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>9</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>537</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>393</v>
       </c>
       <c r="V24" t="n">
         <v>2</v>
@@ -10091,28 +10094,28 @@
         <v>168</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
+        <v>178</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
         <v>177</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>178</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -10175,7 +10178,7 @@
         <v>87</v>
       </c>
       <c r="BV24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
@@ -10184,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="BY24" t="n">
+        <v>59</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>76</v>
       </c>
-      <c r="BZ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
+      <c r="CD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
         <v>82</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>59</v>
       </c>
       <c r="CH24" t="n">
         <v>0</v>
@@ -10292,19 +10295,19 @@
         <v>0</v>
       </c>
       <c r="DI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM24" t="n">
         <v>21</v>
-      </c>
-      <c r="DJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM24" t="n">
-        <v>19</v>
       </c>
       <c r="DN24" t="n">
         <v>0</v>
@@ -10435,25 +10438,25 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>520</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>15</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>599</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>10</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>520</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -10528,28 +10531,28 @@
         <v>202</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>202</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="n">
         <v>3</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
         <v>207</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>202</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -10612,40 +10615,40 @@
         <v>100</v>
       </c>
       <c r="BV25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX25" t="n">
         <v>0</v>
       </c>
       <c r="BY25" t="n">
+        <v>80</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
         <v>91</v>
       </c>
-      <c r="BZ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
+      <c r="CD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
         <v>96</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>80</v>
       </c>
       <c r="CH25" t="n">
         <v>0</v>
@@ -10723,25 +10726,25 @@
         <v>0</v>
       </c>
       <c r="DG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH25" t="n">
         <v>0</v>
       </c>
       <c r="DI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM25" t="n">
         <v>26</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK25" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM25" t="n">
-        <v>23</v>
       </c>
       <c r="DN25" t="n">
         <v>0</v>
@@ -10833,10 +10836,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C26" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D26" t="n">
         <v>19544</v>
@@ -10869,28 +10872,28 @@
         <v>9074</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>14</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>604</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
         <v>23</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>661</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>14</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>604</v>
       </c>
       <c r="V26" t="n">
         <v>2</v>
@@ -10965,28 +10968,28 @@
         <v>236</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>225</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="n">
         <v>3</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
         <v>231</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>225</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -11049,40 +11052,40 @@
         <v>111</v>
       </c>
       <c r="BV26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>95</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
         <v>2</v>
       </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
+      <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
         <v>99</v>
       </c>
-      <c r="BZ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC26" t="n">
+      <c r="CD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG26" t="n">
         <v>104</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>95</v>
       </c>
       <c r="CH26" t="n">
         <v>0</v>
@@ -11160,25 +11163,25 @@
         <v>0</v>
       </c>
       <c r="DG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH26" t="n">
         <v>0</v>
       </c>
       <c r="DI26" t="n">
+        <v>27</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM26" t="n">
         <v>28</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK26" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM26" t="n">
-        <v>27</v>
       </c>
       <c r="DN26" t="n">
         <v>0</v>
@@ -11262,6 +11265,443 @@
         <v>0</v>
       </c>
       <c r="EO26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:145">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="n">
+        <v>361</v>
+      </c>
+      <c r="C27" t="n">
+        <v>527</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21558</v>
+      </c>
+      <c r="E27" t="n">
+        <v>17341</v>
+      </c>
+      <c r="F27" t="n">
+        <v>265</v>
+      </c>
+      <c r="G27" t="n">
+        <v>228</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5142</v>
+      </c>
+      <c r="J27" t="n">
+        <v>350</v>
+      </c>
+      <c r="K27" t="n">
+        <v>295</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>11177</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>683</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>36</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>724</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>14</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>566</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>521</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>408</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>391</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>271</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>246</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>254</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>212</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>193</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>179</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>128</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>127</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>118</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>109</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>113</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>73</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>71</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>66</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>56</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>46</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>34</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>31</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>31</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>24</v>
+      </c>
+      <c r="DV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY27" t="n">
+        <v>15</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="ED27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK27" t="n">
+        <v>8</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO27" t="n">
         <v>1</v>
       </c>
     </row>
